--- a/data/parameters_lists/liste_catégorie.xlsx
+++ b/data/parameters_lists/liste_catégorie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,16 +510,6 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ijij</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
